--- a/Code/Results/Cases/Case_7_35/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_35/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.11405198385064</v>
+        <v>21.02430817274765</v>
       </c>
       <c r="C2">
-        <v>14.75878428376275</v>
+        <v>14.64749342899964</v>
       </c>
       <c r="D2">
-        <v>3.944259644861508</v>
+        <v>4.034455624799785</v>
       </c>
       <c r="E2">
-        <v>11.3996151732986</v>
+        <v>11.36285351902625</v>
       </c>
       <c r="F2">
-        <v>35.94810240859378</v>
+        <v>17.93044899956847</v>
       </c>
       <c r="G2">
-        <v>2.055477864966493</v>
+        <v>2.058969315572304</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>18.21682218758203</v>
+        <v>18.15659081240609</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>28.14650113881191</v>
+        <v>13.7266147485884</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.6252553574474</v>
+        <v>19.66290506532368</v>
       </c>
       <c r="C3">
-        <v>13.78000718626259</v>
+        <v>13.82824348609839</v>
       </c>
       <c r="D3">
-        <v>4.001456173139378</v>
+        <v>3.915470705451204</v>
       </c>
       <c r="E3">
-        <v>10.76297748501588</v>
+        <v>10.78000713186082</v>
       </c>
       <c r="F3">
-        <v>34.04887499470872</v>
+        <v>17.33641345980246</v>
       </c>
       <c r="G3">
-        <v>2.066647420092546</v>
+        <v>2.065165303285088</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>16.95529399449519</v>
+        <v>16.98031329241018</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>26.81500823272844</v>
+        <v>13.52573650964506</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.66427375123521</v>
+        <v>18.77950020654195</v>
       </c>
       <c r="C4">
-        <v>13.14966787010222</v>
+        <v>13.30056501562009</v>
       </c>
       <c r="D4">
-        <v>4.038503825884893</v>
+        <v>3.84058126397555</v>
       </c>
       <c r="E4">
-        <v>10.36773594985787</v>
+        <v>10.42331864804184</v>
       </c>
       <c r="F4">
-        <v>32.87189694626671</v>
+        <v>16.98880746471892</v>
       </c>
       <c r="G4">
-        <v>2.073640416335106</v>
+        <v>2.069075956740866</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.14361051070383</v>
+        <v>16.21969766048136</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>25.99770211010146</v>
+        <v>13.42326544082878</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.26068375050795</v>
+        <v>18.40752457016652</v>
       </c>
       <c r="C5">
-        <v>12.88531023037263</v>
+        <v>13.07942362101024</v>
       </c>
       <c r="D5">
-        <v>4.054050352487517</v>
+        <v>3.809631514173036</v>
       </c>
       <c r="E5">
-        <v>10.20567671403916</v>
+        <v>10.27844266184012</v>
       </c>
       <c r="F5">
-        <v>32.38990900794852</v>
+        <v>16.85159279325816</v>
       </c>
       <c r="G5">
-        <v>2.076527162507355</v>
+        <v>2.070697221806225</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.80334131614595</v>
+        <v>15.90004778848761</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>25.66494445639943</v>
+        <v>13.38658874238699</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.1929386246381</v>
+        <v>18.34503385248168</v>
       </c>
       <c r="C6">
-        <v>12.84095878346202</v>
+        <v>13.04233757218815</v>
       </c>
       <c r="D6">
-        <v>4.056658039809974</v>
+        <v>3.804467163268221</v>
       </c>
       <c r="E6">
-        <v>10.17871045485997</v>
+        <v>10.25442078180494</v>
       </c>
       <c r="F6">
-        <v>32.30974570183097</v>
+        <v>16.82907991226595</v>
       </c>
       <c r="G6">
-        <v>2.077008828480178</v>
+        <v>2.070968126934862</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.74626130922228</v>
+        <v>15.84638379585568</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>25.60971683293397</v>
+        <v>13.38080018313629</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.65887956684493</v>
+        <v>18.77453216341266</v>
       </c>
       <c r="C7">
-        <v>13.14613310040046</v>
+        <v>13.29760721567885</v>
       </c>
       <c r="D7">
-        <v>4.038711715670582</v>
+        <v>3.840165572270499</v>
       </c>
       <c r="E7">
-        <v>10.36555423228486</v>
+        <v>10.42136260700006</v>
       </c>
       <c r="F7">
-        <v>32.86540567407506</v>
+        <v>16.98693881155194</v>
       </c>
       <c r="G7">
-        <v>2.073679194063325</v>
+        <v>2.069097708593643</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.13906020796523</v>
+        <v>16.21542604215395</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>25.99321283637751</v>
+        <v>13.42275046949409</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.61031480078398</v>
+        <v>20.56472800899393</v>
       </c>
       <c r="C8">
-        <v>14.4273282440727</v>
+        <v>14.37018010205674</v>
       </c>
       <c r="D8">
-        <v>3.963557380865292</v>
+        <v>3.993826414443593</v>
       </c>
       <c r="E8">
-        <v>11.18104884439317</v>
+        <v>11.16174169198086</v>
       </c>
       <c r="F8">
-        <v>35.29568342902757</v>
+        <v>17.72215017909524</v>
       </c>
       <c r="G8">
-        <v>2.059303116585884</v>
+        <v>2.061084198044214</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>17.78943767546181</v>
+        <v>17.75894496153044</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>27.68747693232509</v>
+        <v>13.65292747544345</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.07509977330841</v>
+        <v>23.70076956048702</v>
       </c>
       <c r="C9">
-        <v>16.71243029463148</v>
+        <v>16.27513677061177</v>
       </c>
       <c r="D9">
-        <v>3.83343819494826</v>
+        <v>4.279494448430829</v>
       </c>
       <c r="E9">
-        <v>12.7438483363208</v>
+        <v>12.61673804631028</v>
       </c>
       <c r="F9">
-        <v>39.96567582758417</v>
+        <v>19.29385881237703</v>
       </c>
       <c r="G9">
-        <v>2.032023850723738</v>
+        <v>2.04616890047019</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>20.74027385418438</v>
+        <v>20.48397515312381</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>31.00513946678547</v>
+        <v>14.27613380196213</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.41501906614972</v>
+        <v>25.78054783564003</v>
       </c>
       <c r="C10">
-        <v>18.26211108794219</v>
+        <v>17.55169518313701</v>
       </c>
       <c r="D10">
-        <v>3.751738803813713</v>
+        <v>4.478541982188825</v>
       </c>
       <c r="E10">
-        <v>13.90540952120759</v>
+        <v>13.87946638908398</v>
       </c>
       <c r="F10">
-        <v>43.33498408722707</v>
+        <v>20.52010972207754</v>
       </c>
       <c r="G10">
-        <v>2.012288918676612</v>
+        <v>2.035631519440429</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>22.74818356134467</v>
+        <v>22.30676426715108</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>33.43729640083804</v>
+        <v>14.84568390760334</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.43864502618813</v>
+        <v>26.67906162209355</v>
       </c>
       <c r="C11">
-        <v>18.9415841767833</v>
+        <v>18.10564852248153</v>
       </c>
       <c r="D11">
-        <v>3.718578992427642</v>
+        <v>4.566530121353186</v>
       </c>
       <c r="E11">
-        <v>14.49546609311376</v>
+        <v>14.46310735347129</v>
       </c>
       <c r="F11">
-        <v>44.8565000931652</v>
+        <v>21.09211862506976</v>
       </c>
       <c r="G11">
-        <v>2.003312481684451</v>
+        <v>2.030913136008213</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>23.63053919556485</v>
+        <v>23.09833068204972</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>34.54409419375509</v>
+        <v>15.13011843025147</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.82075707121364</v>
+        <v>27.01255971334033</v>
       </c>
       <c r="C12">
-        <v>19.19546780498593</v>
+        <v>18.31157998003133</v>
       </c>
       <c r="D12">
-        <v>3.706703673621265</v>
+        <v>4.599466999963369</v>
       </c>
       <c r="E12">
-        <v>14.71700108833633</v>
+        <v>14.68180489134041</v>
       </c>
       <c r="F12">
-        <v>45.431418088394</v>
+        <v>21.31067638263478</v>
       </c>
       <c r="G12">
-        <v>1.999907114740434</v>
+        <v>2.029135759311745</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>23.96055472038102</v>
+        <v>23.39278347355765</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>34.96353523013546</v>
+        <v>15.24153859526295</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.7387014134002</v>
+        <v>26.94103353966344</v>
       </c>
       <c r="C13">
-        <v>19.14093710839869</v>
+        <v>18.26739939631799</v>
       </c>
       <c r="D13">
-        <v>3.70922900703799</v>
+        <v>4.592390654534148</v>
       </c>
       <c r="E13">
-        <v>14.66936922839627</v>
+        <v>14.63480502253671</v>
       </c>
       <c r="F13">
-        <v>45.30764715896822</v>
+        <v>21.26352042229859</v>
       </c>
       <c r="G13">
-        <v>2.000640907756153</v>
+        <v>2.029518156439493</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>23.88965676163798</v>
+        <v>23.32960138472444</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>34.87318130878515</v>
+        <v>15.21737625013198</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.47018989254564</v>
+        <v>26.7066334158282</v>
       </c>
       <c r="C14">
-        <v>18.96253829158571</v>
+        <v>18.12266746065743</v>
       </c>
       <c r="D14">
-        <v>3.717587660604323</v>
+        <v>4.56924759204288</v>
       </c>
       <c r="E14">
-        <v>14.5137282904577</v>
+        <v>14.48114526863345</v>
       </c>
       <c r="F14">
-        <v>44.90382127944118</v>
+        <v>21.11006082149212</v>
       </c>
       <c r="G14">
-        <v>2.00303248376962</v>
+        <v>2.030766730949534</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>23.65777001187525</v>
+        <v>23.1226609322751</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>34.57859348153688</v>
+        <v>15.13921030947181</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.30501226117087</v>
+        <v>26.56218050077639</v>
       </c>
       <c r="C15">
-        <v>18.85282669099152</v>
+        <v>18.03351556190113</v>
       </c>
       <c r="D15">
-        <v>3.722799841448691</v>
+        <v>4.555021633901533</v>
       </c>
       <c r="E15">
-        <v>14.41815484202551</v>
+        <v>14.38672718004228</v>
       </c>
       <c r="F15">
-        <v>44.65631739276687</v>
+        <v>21.01631423292252</v>
       </c>
       <c r="G15">
-        <v>2.004496383326767</v>
+        <v>2.031532694937205</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>23.51520830773984</v>
+        <v>22.99521782628352</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>34.39820162782103</v>
+        <v>15.09181652077501</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.34733082077152</v>
+        <v>25.72087805132178</v>
       </c>
       <c r="C16">
-        <v>18.21721334854829</v>
+        <v>17.51495506101926</v>
       </c>
       <c r="D16">
-        <v>3.753995025324311</v>
+        <v>4.47273896170368</v>
       </c>
       <c r="E16">
-        <v>13.86656427992985</v>
+        <v>13.8409923356194</v>
       </c>
       <c r="F16">
-        <v>43.23535151619455</v>
+        <v>20.48300472986204</v>
       </c>
       <c r="G16">
-        <v>2.012875050661235</v>
+        <v>2.035941269114681</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>22.68992364365679</v>
+        <v>22.25428587215986</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>33.36499232438054</v>
+        <v>14.82761132980591</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.74961005557002</v>
+        <v>25.19264163556735</v>
       </c>
       <c r="C17">
-        <v>17.82092200034969</v>
+        <v>17.18998371331217</v>
       </c>
       <c r="D17">
-        <v>3.774226829394451</v>
+        <v>4.421594592791117</v>
       </c>
       <c r="E17">
-        <v>13.54494558799501</v>
+        <v>13.50192788489282</v>
       </c>
       <c r="F17">
-        <v>42.3609753373924</v>
+        <v>20.15939695144994</v>
       </c>
       <c r="G17">
-        <v>2.018011141507669</v>
+        <v>2.038664048113077</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>22.17592002221128</v>
+        <v>21.79018809568238</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>32.73140330551897</v>
+        <v>14.67207166708058</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.40195138192213</v>
+        <v>24.88432869530686</v>
       </c>
       <c r="C18">
-        <v>17.59057018048337</v>
+        <v>17.00054862770961</v>
       </c>
       <c r="D18">
-        <v>3.786233189133642</v>
+        <v>4.391937454856005</v>
       </c>
       <c r="E18">
-        <v>13.37635825448737</v>
+        <v>13.30529429042404</v>
       </c>
       <c r="F18">
-        <v>41.85697198459244</v>
+        <v>19.97460488007441</v>
       </c>
       <c r="G18">
-        <v>2.020965816775518</v>
+        <v>2.040237282151693</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>21.87733213909683</v>
+        <v>21.51970183259322</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>32.3669941863977</v>
+        <v>14.58499162195452</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.28356609821376</v>
+        <v>24.77916616621691</v>
       </c>
       <c r="C19">
-        <v>17.51215522409825</v>
+        <v>16.93597625210338</v>
       </c>
       <c r="D19">
-        <v>3.790358929760298</v>
+        <v>4.381855275259417</v>
       </c>
       <c r="E19">
-        <v>13.31921687039336</v>
+        <v>13.23843681151036</v>
       </c>
       <c r="F19">
-        <v>41.68613021311579</v>
+        <v>19.91227051548919</v>
       </c>
       <c r="G19">
-        <v>2.021966488793667</v>
+        <v>2.040771224119268</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>21.77571940436207</v>
+        <v>21.42750690523309</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>32.24360794808255</v>
+        <v>14.55591477667224</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.81363607962097</v>
+        <v>25.24933686824226</v>
       </c>
       <c r="C20">
-        <v>17.86335621900575</v>
+        <v>17.22483826860193</v>
       </c>
       <c r="D20">
-        <v>3.772034173455115</v>
+        <v>4.427063975351196</v>
       </c>
       <c r="E20">
-        <v>13.57611950799927</v>
+        <v>13.53818787665256</v>
       </c>
       <c r="F20">
-        <v>42.45416437213402</v>
+        <v>20.19370774817916</v>
       </c>
       <c r="G20">
-        <v>2.017464383841791</v>
+        <v>2.038373472208706</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>22.23093915510156</v>
+        <v>21.83995866322126</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>32.79884691151865</v>
+        <v>14.68838206294356</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.54920478047976</v>
+        <v>26.77566480732724</v>
       </c>
       <c r="C21">
-        <v>19.01502896066253</v>
+        <v>18.16528278039587</v>
       </c>
       <c r="D21">
-        <v>3.715113073954782</v>
+        <v>4.576055746134148</v>
       </c>
       <c r="E21">
-        <v>14.55949300296327</v>
+        <v>14.52634049645587</v>
       </c>
       <c r="F21">
-        <v>45.02246487646803</v>
+        <v>21.15508325895748</v>
       </c>
       <c r="G21">
-        <v>2.002330243051417</v>
+        <v>2.030399751993416</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>23.72598934871022</v>
+        <v>23.18358712003654</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>34.6651096471068</v>
+        <v>15.16206833750456</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.65156694808517</v>
+        <v>27.73391626408114</v>
       </c>
       <c r="C22">
-        <v>19.74793355905378</v>
+        <v>18.75755622403371</v>
       </c>
       <c r="D22">
-        <v>3.681950118347956</v>
+        <v>4.671197402185399</v>
       </c>
       <c r="E22">
-        <v>15.20110541065763</v>
+        <v>15.15874253767533</v>
       </c>
       <c r="F22">
-        <v>46.69401597347262</v>
+        <v>21.79474624477698</v>
       </c>
       <c r="G22">
-        <v>1.992399489901204</v>
+        <v>2.025242340311054</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>24.6793171439747</v>
+        <v>24.03091786708218</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>35.88690341300388</v>
+        <v>15.49330618306795</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.06600687510955</v>
+        <v>27.22604148939221</v>
       </c>
       <c r="C23">
-        <v>19.35848674794303</v>
+        <v>18.44348845621413</v>
       </c>
       <c r="D23">
-        <v>3.69923953975553</v>
+        <v>4.620626817058044</v>
       </c>
       <c r="E23">
-        <v>14.85955734916466</v>
+        <v>14.82239456638951</v>
       </c>
       <c r="F23">
-        <v>45.80235361932175</v>
+        <v>21.45232939614202</v>
       </c>
       <c r="G23">
-        <v>1.997705707001676</v>
+        <v>2.02799052407086</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>24.17255333939728</v>
+        <v>23.58145920652591</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>35.23449845009819</v>
+        <v>15.31451668285183</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.78470246506696</v>
+        <v>25.22371935947299</v>
       </c>
       <c r="C24">
-        <v>17.84417957185563</v>
+        <v>17.20908863786244</v>
       </c>
       <c r="D24">
-        <v>3.773024313413015</v>
+        <v>4.424592056161197</v>
       </c>
       <c r="E24">
-        <v>13.56202704931919</v>
+        <v>13.52180004229658</v>
       </c>
       <c r="F24">
-        <v>42.41203772408507</v>
+        <v>20.17819192281965</v>
       </c>
       <c r="G24">
-        <v>2.017711566698205</v>
+        <v>2.038504816948596</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>22.20607462559066</v>
+        <v>21.81746883023968</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>32.76835614384927</v>
+        <v>14.6810008439615</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.17507475498045</v>
+        <v>22.89210195658817</v>
       </c>
       <c r="C25">
-        <v>16.11770028536596</v>
+        <v>15.78131925699129</v>
       </c>
       <c r="D25">
-        <v>3.866483526093</v>
+        <v>4.20403440119482</v>
       </c>
       <c r="E25">
-        <v>12.32504438220709</v>
+        <v>12.2235242522598</v>
       </c>
       <c r="F25">
-        <v>38.71341190594925</v>
+        <v>18.85558265268053</v>
       </c>
       <c r="G25">
-        <v>2.039329821791553</v>
+        <v>2.050124877577869</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>19.97122296864973</v>
+        <v>19.77865428471438</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>30.10872445054572</v>
+        <v>14.08834771637738</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_35/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_35/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1211 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.02430817274765</v>
+        <v>21.02468335937225</v>
       </c>
       <c r="C2">
-        <v>14.64749342899964</v>
+        <v>15.08276878209141</v>
       </c>
       <c r="D2">
-        <v>4.034455624799785</v>
+        <v>4.732878917685967</v>
       </c>
       <c r="E2">
-        <v>11.36285351902625</v>
+        <v>14.56456770084341</v>
       </c>
       <c r="F2">
-        <v>17.93044899956847</v>
+        <v>14.39336346149177</v>
       </c>
       <c r="G2">
-        <v>2.058969315572304</v>
+        <v>16.49352053844974</v>
       </c>
       <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
+        <v>2.427497009018034</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>7.050597957570613</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>9.343939142026688</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>18.15659081240609</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>13.7266147485884</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>17.74316904573189</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>10.94648988245477</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.66290506532368</v>
+        <v>19.73435239865308</v>
       </c>
       <c r="C3">
-        <v>13.82824348609839</v>
+        <v>14.24381832103316</v>
       </c>
       <c r="D3">
-        <v>3.915470705451204</v>
+        <v>4.502084293501627</v>
       </c>
       <c r="E3">
-        <v>10.78000713186082</v>
+        <v>13.98255607116761</v>
       </c>
       <c r="F3">
-        <v>17.33641345980246</v>
+        <v>13.99951321555941</v>
       </c>
       <c r="G3">
-        <v>2.065165303285088</v>
+        <v>15.94626492102175</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
+        <v>2.220049047934658</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>7.091293269719221</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>9.640962783252908</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>16.98031329241018</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>13.52573650964506</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>16.67834976478339</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>10.88923912120288</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.77950020654195</v>
+        <v>18.89668057563433</v>
       </c>
       <c r="C4">
-        <v>13.30056501562009</v>
+        <v>13.70229350372892</v>
       </c>
       <c r="D4">
-        <v>3.84058126397555</v>
+        <v>4.353558160821422</v>
       </c>
       <c r="E4">
-        <v>10.42331864804184</v>
+        <v>13.61200859708652</v>
       </c>
       <c r="F4">
-        <v>16.98880746471892</v>
+        <v>13.76810761854207</v>
       </c>
       <c r="G4">
-        <v>2.069075956740866</v>
+        <v>15.6265954137608</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
+        <v>2.08832859381476</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>7.121615720391837</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>9.831366936520876</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.21969766048136</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>13.42326544082878</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>15.98917803242044</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>10.86622853622</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.40752457016652</v>
+        <v>18.54395871928979</v>
       </c>
       <c r="C5">
-        <v>13.07942362101024</v>
+        <v>13.47509856295322</v>
       </c>
       <c r="D5">
-        <v>3.809631514173036</v>
+        <v>4.291356117809761</v>
       </c>
       <c r="E5">
-        <v>10.27844266184012</v>
+        <v>13.45779470490595</v>
       </c>
       <c r="F5">
-        <v>16.85159279325816</v>
+        <v>13.67652626628176</v>
       </c>
       <c r="G5">
-        <v>2.070697221806225</v>
+        <v>15.50059125635662</v>
       </c>
       <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
+        <v>2.033541758073881</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>7.135260188369354</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>9.910916314247224</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.90004778848761</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>13.38658874238699</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>15.69952466227628</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>10.85979485008584</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.34503385248168</v>
+        <v>18.484705212761</v>
       </c>
       <c r="C6">
-        <v>13.04233757218815</v>
+        <v>13.43698338609986</v>
       </c>
       <c r="D6">
-        <v>3.804467163268221</v>
+        <v>4.28092751682583</v>
       </c>
       <c r="E6">
-        <v>10.25442078180494</v>
+        <v>13.43199690467342</v>
       </c>
       <c r="F6">
-        <v>16.82907991226595</v>
+        <v>13.66148609228224</v>
       </c>
       <c r="G6">
-        <v>2.070968126934862</v>
+        <v>15.47992995691464</v>
       </c>
       <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
+        <v>2.024376945462105</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>7.137602077900093</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>9.924242093222494</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.84638379585568</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>13.38080018313629</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>15.65089879570084</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>10.85890096195944</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.77453216341266</v>
+        <v>18.89196956920515</v>
       </c>
       <c r="C7">
-        <v>13.29760721567885</v>
+        <v>13.69925568818087</v>
       </c>
       <c r="D7">
-        <v>3.840165572270499</v>
+        <v>4.352726014700576</v>
       </c>
       <c r="E7">
-        <v>10.42136260700006</v>
+        <v>13.60994167435947</v>
       </c>
       <c r="F7">
-        <v>16.98693881155194</v>
+        <v>13.76686139198586</v>
       </c>
       <c r="G7">
-        <v>2.069097708593643</v>
+        <v>15.62487862613801</v>
       </c>
       <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
+        <v>2.087594234182809</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>7.121794590134336</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>9.83243191239351</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.21542604215395</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>13.42275046949409</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>15.98530720848298</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>10.86613000223686</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.56472800899393</v>
+        <v>20.5892255263905</v>
       </c>
       <c r="C8">
-        <v>14.37018010205674</v>
+        <v>14.79904293245283</v>
       </c>
       <c r="D8">
-        <v>3.993826414443593</v>
+        <v>4.654736307922264</v>
       </c>
       <c r="E8">
-        <v>11.16174169198086</v>
+        <v>14.36668524042327</v>
       </c>
       <c r="F8">
-        <v>17.72215017909524</v>
+        <v>14.25546290517591</v>
       </c>
       <c r="G8">
-        <v>2.061084198044214</v>
+        <v>16.30153105914051</v>
       </c>
       <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
+        <v>2.356860833833101</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>7.063489555407325</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>9.444646129036013</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>17.75894496153044</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>13.65292747544345</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>17.38340204080321</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>10.92416614444218</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.70076956048702</v>
+        <v>23.55605801744445</v>
       </c>
       <c r="C9">
-        <v>16.27513677061177</v>
+        <v>16.74225067888725</v>
       </c>
       <c r="D9">
-        <v>4.279494448430829</v>
+        <v>5.191577113986023</v>
       </c>
       <c r="E9">
-        <v>12.61673804631028</v>
+        <v>15.74221646274114</v>
       </c>
       <c r="F9">
-        <v>19.29385881237703</v>
+        <v>15.29161156968667</v>
       </c>
       <c r="G9">
-        <v>2.04616890047019</v>
+        <v>17.75074058178941</v>
       </c>
       <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
+        <v>2.851193341942743</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>6.993961958007914</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>8.751273628420075</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>20.48397515312381</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>14.27613380196213</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>19.84201552097783</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>11.1387911837665</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.78054783564003</v>
+        <v>25.57611249435337</v>
       </c>
       <c r="C10">
-        <v>17.55169518313701</v>
+        <v>18.06889460196486</v>
       </c>
       <c r="D10">
-        <v>4.478541982188825</v>
+        <v>5.576258763021534</v>
       </c>
       <c r="E10">
-        <v>13.87946638908398</v>
+        <v>16.18659987428552</v>
       </c>
       <c r="F10">
-        <v>20.52010972207754</v>
+        <v>15.97561774699714</v>
       </c>
       <c r="G10">
-        <v>2.035631519440429</v>
+        <v>18.66602529237901</v>
       </c>
       <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
+        <v>3.172083037513969</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>6.936791455400973</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>8.233642191103865</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>22.30676426715108</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>14.84568390760334</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>21.21300474969799</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>11.26883314576288</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.67906162209355</v>
+        <v>26.97316476085765</v>
       </c>
       <c r="C11">
-        <v>18.10564852248153</v>
+        <v>18.92841853094973</v>
       </c>
       <c r="D11">
-        <v>4.566530121353186</v>
+        <v>5.962758348967012</v>
       </c>
       <c r="E11">
-        <v>14.46310735347129</v>
+        <v>12.50164340540666</v>
       </c>
       <c r="F11">
-        <v>21.09211862506976</v>
+        <v>15.27283040322575</v>
       </c>
       <c r="G11">
-        <v>2.030913136008213</v>
+        <v>17.25828485545283</v>
       </c>
       <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
+        <v>3.728637028647802</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>6.597244028215164</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>7.561415886199684</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>23.09833068204972</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>15.13011843025147</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>19.56892990905623</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>10.52251143681778</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.01255971334033</v>
+        <v>27.75036132703012</v>
       </c>
       <c r="C12">
-        <v>18.31157998003133</v>
+        <v>19.39082740218198</v>
       </c>
       <c r="D12">
-        <v>4.599466999963369</v>
+        <v>6.21409890562195</v>
       </c>
       <c r="E12">
-        <v>14.68180489134041</v>
+        <v>10.17713190636006</v>
       </c>
       <c r="F12">
-        <v>21.31067638263478</v>
+        <v>14.51577882716125</v>
       </c>
       <c r="G12">
-        <v>2.029135759311745</v>
+        <v>15.84790625532403</v>
       </c>
       <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
+        <v>4.736273395595907</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>6.317848089812683</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>7.150384754321354</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>23.39278347355765</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>15.24153859526295</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>17.8811262361189</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>9.848850830204899</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.94103353966344</v>
+        <v>28.12175936395721</v>
       </c>
       <c r="C13">
-        <v>18.26739939631799</v>
+        <v>19.58833232813194</v>
       </c>
       <c r="D13">
-        <v>4.592390654534148</v>
+        <v>6.382703873315293</v>
       </c>
       <c r="E13">
-        <v>14.63480502253671</v>
+        <v>9.367727046454466</v>
       </c>
       <c r="F13">
-        <v>21.26352042229859</v>
+        <v>13.64744577363853</v>
       </c>
       <c r="G13">
-        <v>2.029518156439493</v>
+        <v>14.29837272122268</v>
       </c>
       <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
+        <v>5.906110027638356</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>6.068190677068993</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>6.931388013800666</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>23.32960138472444</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>15.21737625013198</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>16.00501588067793</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>9.182805962183249</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.7066334158282</v>
+        <v>28.20388784752271</v>
       </c>
       <c r="C14">
-        <v>18.12266746065743</v>
+        <v>19.60964361222862</v>
       </c>
       <c r="D14">
-        <v>4.56924759204288</v>
+        <v>6.465386043555919</v>
       </c>
       <c r="E14">
-        <v>14.48114526863345</v>
+        <v>9.910415816365745</v>
       </c>
       <c r="F14">
-        <v>21.11006082149212</v>
+        <v>12.98029101801994</v>
       </c>
       <c r="G14">
-        <v>2.030766730949534</v>
+        <v>13.1299494119765</v>
       </c>
       <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
+        <v>6.782467880305763</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>5.909169610087524</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>6.880173742264738</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>23.1226609322751</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>15.13921030947181</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>14.5805938338986</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>8.721662437953242</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.56218050077639</v>
+        <v>28.13664212183956</v>
       </c>
       <c r="C15">
-        <v>18.03351556190113</v>
+        <v>19.5574108102554</v>
       </c>
       <c r="D15">
-        <v>4.555021633901533</v>
+        <v>6.467730800260778</v>
       </c>
       <c r="E15">
-        <v>14.38672718004228</v>
+        <v>10.16874577955514</v>
       </c>
       <c r="F15">
-        <v>21.01631423292252</v>
+        <v>12.79474420821737</v>
       </c>
       <c r="G15">
-        <v>2.031532694937205</v>
+        <v>12.81450930982051</v>
       </c>
       <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
+        <v>6.983283587476392</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>5.877977381549759</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>6.901971028030164</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>22.99521782628352</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>15.09181652077501</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>14.18930072131581</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>8.613987354211902</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.72087805132178</v>
+        <v>27.26932358145344</v>
       </c>
       <c r="C16">
-        <v>17.51495506101926</v>
+        <v>18.98875607931515</v>
       </c>
       <c r="D16">
-        <v>4.47273896170368</v>
+        <v>6.286549641206868</v>
       </c>
       <c r="E16">
-        <v>13.8409923356194</v>
+        <v>10.0306877815515</v>
       </c>
       <c r="F16">
-        <v>20.48300472986204</v>
+        <v>12.62169213131563</v>
       </c>
       <c r="G16">
-        <v>2.035941269114681</v>
+        <v>12.61079631747252</v>
       </c>
       <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
+        <v>6.712370555533309</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>5.953719755595205</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>7.177901497677841</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>22.25428587215986</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>14.82761132980591</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>13.85464220314778</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>8.678846643184263</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.19264163556735</v>
+        <v>26.54171204252633</v>
       </c>
       <c r="C17">
-        <v>17.18998371331217</v>
+        <v>18.53081817557359</v>
       </c>
       <c r="D17">
-        <v>4.421594592791117</v>
+        <v>6.098492565899416</v>
       </c>
       <c r="E17">
-        <v>13.50192788489282</v>
+        <v>9.463134338474772</v>
       </c>
       <c r="F17">
-        <v>20.15939695144994</v>
+        <v>12.86090544616585</v>
       </c>
       <c r="G17">
-        <v>2.038664048113077</v>
+        <v>13.11413185507871</v>
       </c>
       <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
+        <v>5.98972668864738</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>6.095738530643366</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>7.410286425992682</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>21.79018809568238</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>14.67207166708058</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>14.39092199075754</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>8.976647513160733</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.88432869530686</v>
+        <v>25.86530413393053</v>
       </c>
       <c r="C18">
-        <v>17.00054862770961</v>
+        <v>18.12563656947589</v>
       </c>
       <c r="D18">
-        <v>4.391937454856005</v>
+        <v>5.886128452398228</v>
       </c>
       <c r="E18">
-        <v>13.30529429042404</v>
+        <v>9.431128766582447</v>
       </c>
       <c r="F18">
-        <v>19.97460488007441</v>
+        <v>13.47215793140374</v>
       </c>
       <c r="G18">
-        <v>2.040237282151693</v>
+        <v>14.26595424831535</v>
       </c>
       <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
+        <v>4.857713397806165</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>6.31026754267271</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>7.664475940101154</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>21.51970183259322</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>14.58499162195452</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>15.74482220834191</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>9.503236119834595</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.77916616621691</v>
+        <v>25.29353325646913</v>
       </c>
       <c r="C19">
-        <v>16.93597625210338</v>
+        <v>17.8018560347559</v>
       </c>
       <c r="D19">
-        <v>4.381855275259417</v>
+        <v>5.674017291916199</v>
       </c>
       <c r="E19">
-        <v>13.23843681151036</v>
+        <v>11.17797405346825</v>
       </c>
       <c r="F19">
-        <v>19.91227051548919</v>
+        <v>14.3235962034674</v>
       </c>
       <c r="G19">
-        <v>2.040771224119268</v>
+        <v>15.82742954642291</v>
       </c>
       <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
+        <v>3.689033896600372</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>6.569934420069896</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>7.963667043553096</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>21.42750690523309</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>14.55591477667224</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>17.63510031059252</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>10.17549462364489</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.24933686824226</v>
+        <v>25.06388919700296</v>
       </c>
       <c r="C20">
-        <v>17.22483826860193</v>
+        <v>17.73144675958844</v>
       </c>
       <c r="D20">
-        <v>4.427063975351196</v>
+        <v>5.478974364622783</v>
       </c>
       <c r="E20">
-        <v>13.53818787665256</v>
+        <v>16.04888096550259</v>
       </c>
       <c r="F20">
-        <v>20.19370774817916</v>
+        <v>15.78757881989971</v>
       </c>
       <c r="G20">
-        <v>2.038373472208706</v>
+        <v>18.4106141573024</v>
       </c>
       <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
+        <v>3.086886069687571</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>6.948008815203282</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>8.364065156162907</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>21.83995866322126</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>14.68838206294356</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>20.85051933260368</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>11.22565322417715</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.77566480732724</v>
+        <v>26.44904663557913</v>
       </c>
       <c r="C21">
-        <v>18.16528278039587</v>
+        <v>18.65521678533053</v>
       </c>
       <c r="D21">
-        <v>4.576055746134148</v>
+        <v>5.723291414047531</v>
       </c>
       <c r="E21">
-        <v>14.52634049645587</v>
+        <v>17.13913545589367</v>
       </c>
       <c r="F21">
-        <v>21.15508325895748</v>
+        <v>16.50754937802784</v>
       </c>
       <c r="G21">
-        <v>2.030399751993416</v>
+        <v>19.46313269959042</v>
       </c>
       <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
+        <v>3.363973113968729</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>6.971968996059354</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>8.068584334472668</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>23.18358712003654</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>15.16206833750456</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>22.25418638796205</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>11.49440361998309</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.73391626408114</v>
+        <v>27.34610782452276</v>
       </c>
       <c r="C22">
-        <v>18.75755622403371</v>
+        <v>19.25108338709187</v>
       </c>
       <c r="D22">
-        <v>4.671197402185399</v>
+        <v>5.889446138237293</v>
       </c>
       <c r="E22">
-        <v>15.15874253767533</v>
+        <v>17.58217013377769</v>
       </c>
       <c r="F22">
-        <v>21.79474624477698</v>
+        <v>16.92283340680915</v>
       </c>
       <c r="G22">
-        <v>2.025242340311054</v>
+        <v>20.04958041497698</v>
       </c>
       <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
+        <v>3.529432357924136</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>6.975496095086198</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>7.858797513383338</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>24.03091786708218</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>15.49330618306795</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>23.00470886438185</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>11.63503011138382</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.22604148939221</v>
+        <v>26.87096489896089</v>
       </c>
       <c r="C23">
-        <v>18.44348845621413</v>
+        <v>18.93533582278467</v>
       </c>
       <c r="D23">
-        <v>4.620626817058044</v>
+        <v>5.801373016112247</v>
       </c>
       <c r="E23">
-        <v>14.82239456638951</v>
+        <v>17.34695822833295</v>
       </c>
       <c r="F23">
-        <v>21.45232939614202</v>
+        <v>16.70069703396712</v>
       </c>
       <c r="G23">
-        <v>2.02799052407086</v>
+        <v>19.73580826016236</v>
       </c>
       <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
+        <v>3.441405485447262</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>6.972983639261487</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>7.969682906810608</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>23.58145920652591</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>15.31451668285183</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>22.60704085021333</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>11.5587342481758</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.22371935947299</v>
+        <v>24.99140818322002</v>
       </c>
       <c r="C24">
-        <v>17.20908863786244</v>
+        <v>17.68953798143684</v>
       </c>
       <c r="D24">
-        <v>4.424592056161197</v>
+        <v>5.454528795949084</v>
       </c>
       <c r="E24">
-        <v>13.52180004229658</v>
+        <v>16.42897557932694</v>
       </c>
       <c r="F24">
-        <v>20.17819192281965</v>
+        <v>15.87074891748424</v>
       </c>
       <c r="G24">
-        <v>2.038504816948596</v>
+        <v>18.56528766258661</v>
       </c>
       <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
+        <v>3.101695136668705</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>6.976936017392825</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>8.412208137037094</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>21.81746883023968</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>14.6810008439615</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>21.03716628211314</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>11.29671890870727</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.89210195658817</v>
+        <v>22.79224489881081</v>
       </c>
       <c r="C25">
-        <v>15.78131925699129</v>
+        <v>16.23987390623659</v>
       </c>
       <c r="D25">
-        <v>4.20403440119482</v>
+        <v>5.052435997293114</v>
       </c>
       <c r="E25">
-        <v>12.2235242522598</v>
+        <v>15.38217679587046</v>
       </c>
       <c r="F25">
-        <v>18.85558265268053</v>
+        <v>15.00361812696759</v>
       </c>
       <c r="G25">
-        <v>2.050124877577869</v>
+        <v>17.34665371715845</v>
       </c>
       <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
+        <v>2.720955035395092</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>7.007619601974359</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>8.931140877688529</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>19.77865428471438</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>14.08834771637738</v>
+        <v>19.20744895463622</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>11.06933776183409</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_35/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_35/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1205 +421,1355 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.02468335937225</v>
+        <v>20.96520489496639</v>
       </c>
       <c r="C2">
-        <v>15.08276878209141</v>
+        <v>15.27795289735935</v>
       </c>
       <c r="D2">
-        <v>4.732878917685967</v>
+        <v>4.791585145692891</v>
       </c>
       <c r="E2">
-        <v>14.56456770084341</v>
+        <v>14.43604001876083</v>
       </c>
       <c r="F2">
-        <v>14.39336346149177</v>
+        <v>14.35495656729858</v>
       </c>
       <c r="G2">
-        <v>16.49352053844974</v>
+        <v>15.72003280056744</v>
       </c>
       <c r="H2">
-        <v>2.427497009018034</v>
+        <v>2.387992841862602</v>
       </c>
       <c r="J2">
-        <v>7.050597957570613</v>
+        <v>7.8186354922216</v>
       </c>
       <c r="K2">
-        <v>9.343939142026688</v>
+        <v>9.420733237111254</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>9.531733578968426</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>4.409288326409273</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>17.74316904573189</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>10.94648988245477</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>17.76421121073749</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>10.971240040744</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.73435239865308</v>
+        <v>19.69110434490504</v>
       </c>
       <c r="C3">
-        <v>14.24381832103316</v>
+        <v>14.34494429255818</v>
       </c>
       <c r="D3">
-        <v>4.502084293501627</v>
+        <v>4.545777482577963</v>
       </c>
       <c r="E3">
-        <v>13.98255607116761</v>
+        <v>13.87901210666126</v>
       </c>
       <c r="F3">
-        <v>13.99951321555941</v>
+        <v>14.00525739256112</v>
       </c>
       <c r="G3">
-        <v>15.94626492102175</v>
+        <v>15.20430518730386</v>
       </c>
       <c r="H3">
-        <v>2.220049047934658</v>
+        <v>2.18866225518177</v>
       </c>
       <c r="J3">
-        <v>7.091293269719221</v>
+        <v>7.838091235134405</v>
       </c>
       <c r="K3">
-        <v>9.640962783252908</v>
+        <v>9.706618521297699</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>9.763909972452556</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>4.631873819157415</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>16.67834976478339</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>10.88923912120288</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>16.69265150042588</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>10.93796019941272</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.89668057563433</v>
+        <v>18.86405943532734</v>
       </c>
       <c r="C4">
-        <v>13.70229350372892</v>
+        <v>13.74203151328238</v>
       </c>
       <c r="D4">
-        <v>4.353558160821422</v>
+        <v>4.387587137816886</v>
       </c>
       <c r="E4">
-        <v>13.61200859708652</v>
+        <v>13.52469300912887</v>
       </c>
       <c r="F4">
-        <v>13.76810761854207</v>
+        <v>13.79920804211054</v>
       </c>
       <c r="G4">
-        <v>15.6265954137608</v>
+        <v>14.90399187348171</v>
       </c>
       <c r="H4">
-        <v>2.08832859381476</v>
+        <v>2.062050667232203</v>
       </c>
       <c r="J4">
-        <v>7.121615720391837</v>
+        <v>7.852776961294077</v>
       </c>
       <c r="K4">
-        <v>9.831366936520876</v>
+        <v>9.888381334023991</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>9.915294136978243</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>4.796725703394408</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>15.98917803242044</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>10.86622853622</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>15.99896951364184</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>10.92747406799253</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.54395871928979</v>
+        <v>18.51584985896192</v>
       </c>
       <c r="C5">
-        <v>13.47509856295322</v>
+        <v>13.48892593674025</v>
       </c>
       <c r="D5">
-        <v>4.291356117809761</v>
+        <v>4.321340816077011</v>
       </c>
       <c r="E5">
-        <v>13.45779470490595</v>
+        <v>13.377313690553</v>
       </c>
       <c r="F5">
-        <v>13.67652626628176</v>
+        <v>13.71747796875572</v>
       </c>
       <c r="G5">
-        <v>15.50059125635662</v>
+        <v>14.78581851266637</v>
       </c>
       <c r="H5">
-        <v>2.033541758073881</v>
+        <v>2.009378765138766</v>
       </c>
       <c r="J5">
-        <v>7.135260188369354</v>
+        <v>7.859429734767727</v>
       </c>
       <c r="K5">
-        <v>9.910916314247224</v>
+        <v>9.963995805306688</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>9.979205925964504</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>4.870352826639443</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>15.69952466227628</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>10.85979485008584</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>15.70739162165741</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>10.92560044057449</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.484705212761</v>
+        <v>18.45735708182645</v>
       </c>
       <c r="C6">
-        <v>13.43698338609986</v>
+        <v>13.44645502162845</v>
       </c>
       <c r="D6">
-        <v>4.28092751682583</v>
+        <v>4.310234470474412</v>
       </c>
       <c r="E6">
-        <v>13.43199690467342</v>
+        <v>13.35266405390302</v>
       </c>
       <c r="F6">
-        <v>13.66148609228224</v>
+        <v>13.70404334168729</v>
       </c>
       <c r="G6">
-        <v>15.47992995691464</v>
+        <v>14.76645233275695</v>
       </c>
       <c r="H6">
-        <v>2.024376945462105</v>
+        <v>2.000567177385701</v>
       </c>
       <c r="J6">
-        <v>7.137602077900093</v>
+        <v>7.860574185013959</v>
       </c>
       <c r="K6">
-        <v>9.924242093222494</v>
+        <v>9.976644282655508</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>9.989952681941684</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>4.882950534621332</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>15.65089879570084</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>10.85890096195944</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>15.65844118596232</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>10.92543120959698</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.89196956920515</v>
+        <v>18.85920964168259</v>
       </c>
       <c r="C7">
-        <v>13.69925568818087</v>
+        <v>13.73308918836301</v>
       </c>
       <c r="D7">
-        <v>4.352726014700576</v>
+        <v>4.390260145160457</v>
       </c>
       <c r="E7">
-        <v>13.60994167435947</v>
+        <v>13.52237050985542</v>
       </c>
       <c r="F7">
-        <v>13.76686139198586</v>
+        <v>13.78258333559013</v>
       </c>
       <c r="G7">
-        <v>15.62487862613801</v>
+        <v>15.0010176307737</v>
       </c>
       <c r="H7">
-        <v>2.087594234182809</v>
+        <v>2.060994553399016</v>
       </c>
       <c r="J7">
-        <v>7.121794590134336</v>
+        <v>7.815811873742009</v>
       </c>
       <c r="K7">
-        <v>9.83243191239351</v>
+        <v>9.88515075905925</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>9.91171705878374</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>4.796235756510407</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>15.98530720848298</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>10.86613000223686</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>15.99425604737988</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>10.91632053642206</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.5892255263905</v>
+        <v>20.53465727526314</v>
       </c>
       <c r="C8">
-        <v>14.79904293245283</v>
+        <v>14.94536108244015</v>
       </c>
       <c r="D8">
-        <v>4.654736307922264</v>
+        <v>4.719577821559271</v>
       </c>
       <c r="E8">
-        <v>14.36668524042327</v>
+        <v>14.24570380395435</v>
       </c>
       <c r="F8">
-        <v>14.25546290517591</v>
+        <v>14.18272693969206</v>
       </c>
       <c r="G8">
-        <v>16.30153105914051</v>
+        <v>15.85352083344583</v>
       </c>
       <c r="H8">
-        <v>2.356860833833101</v>
+        <v>2.319052772593104</v>
       </c>
       <c r="J8">
-        <v>7.063489555407325</v>
+        <v>7.703693041283406</v>
       </c>
       <c r="K8">
-        <v>9.444646129036013</v>
+        <v>9.504060502825505</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>9.597374748993728</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>4.471238341246571</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>17.38340204080321</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>10.92416614444218</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>17.39965754459586</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>10.92106368516527</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.55605801744445</v>
+        <v>23.46407341789407</v>
       </c>
       <c r="C9">
-        <v>16.74225067888725</v>
+        <v>17.10018491770761</v>
       </c>
       <c r="D9">
-        <v>5.191577113986023</v>
+        <v>5.293065421286158</v>
       </c>
       <c r="E9">
-        <v>15.74221646274114</v>
+        <v>15.56400385404163</v>
       </c>
       <c r="F9">
-        <v>15.29161156968667</v>
+        <v>15.09092335539176</v>
       </c>
       <c r="G9">
-        <v>17.75074058178941</v>
+        <v>17.28027554313837</v>
       </c>
       <c r="H9">
-        <v>2.851193341942743</v>
+        <v>2.793583646567278</v>
       </c>
       <c r="J9">
-        <v>6.993961958007914</v>
+        <v>7.637946825652582</v>
       </c>
       <c r="K9">
-        <v>8.751273628420075</v>
+        <v>8.82250232882269</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>9.067411332346083</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>4.092066819030332</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>19.84201552097783</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>11.1387911837665</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>19.87238895734432</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>11.05446933348161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.57611249435337</v>
+        <v>25.45907721945874</v>
       </c>
       <c r="C10">
-        <v>18.06889460196486</v>
+        <v>18.52508960595591</v>
       </c>
       <c r="D10">
-        <v>5.576258763021534</v>
+        <v>5.717098155622479</v>
       </c>
       <c r="E10">
-        <v>16.18659987428552</v>
+        <v>15.96929373104792</v>
       </c>
       <c r="F10">
-        <v>15.97561774699714</v>
+        <v>15.60847515141963</v>
       </c>
       <c r="G10">
-        <v>18.66602529237901</v>
+        <v>18.67420462083087</v>
       </c>
       <c r="H10">
-        <v>3.172083037513969</v>
+        <v>3.099180886470108</v>
       </c>
       <c r="J10">
-        <v>6.936791455400973</v>
+        <v>7.372540561047719</v>
       </c>
       <c r="K10">
-        <v>8.233642191103865</v>
+        <v>8.28774005473281</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>8.684784325433096</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>3.925774199290907</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>21.21300474969799</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>11.26883314576288</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>21.24597315693853</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>11.06269545979726</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.97316476085765</v>
+        <v>26.85209136809297</v>
       </c>
       <c r="C11">
-        <v>18.92841853094973</v>
+        <v>19.26458800078868</v>
       </c>
       <c r="D11">
-        <v>5.962758348967012</v>
+        <v>6.132368593196739</v>
       </c>
       <c r="E11">
-        <v>12.50164340540666</v>
+        <v>12.25039903106255</v>
       </c>
       <c r="F11">
-        <v>15.27283040322575</v>
+        <v>14.78834273621121</v>
       </c>
       <c r="G11">
-        <v>17.25828485545283</v>
+        <v>18.44086957926748</v>
       </c>
       <c r="H11">
-        <v>3.728637028647802</v>
+        <v>3.662059398025858</v>
       </c>
       <c r="J11">
-        <v>6.597244028215164</v>
+        <v>6.729198382033813</v>
       </c>
       <c r="K11">
-        <v>7.561415886199684</v>
+        <v>7.685982209472161</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>8.353336104056684</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>3.381052831186528</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>19.56892990905623</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>10.52251143681778</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>19.58165989348631</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>10.24355274605165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.75036132703012</v>
+        <v>27.63095728711564</v>
       </c>
       <c r="C12">
-        <v>19.39082740218198</v>
+        <v>19.61901335909434</v>
       </c>
       <c r="D12">
-        <v>6.21409890562195</v>
+        <v>6.389455449120264</v>
       </c>
       <c r="E12">
-        <v>10.17713190636006</v>
+        <v>9.897764599694069</v>
       </c>
       <c r="F12">
-        <v>14.51577882716125</v>
+        <v>14.01662784804864</v>
       </c>
       <c r="G12">
-        <v>15.84790625532403</v>
+        <v>17.63975809319013</v>
       </c>
       <c r="H12">
-        <v>4.736273395595907</v>
+        <v>4.683814151836891</v>
       </c>
       <c r="J12">
-        <v>6.317848089812683</v>
+        <v>6.405315637151951</v>
       </c>
       <c r="K12">
-        <v>7.150384754321354</v>
+        <v>7.359863335769705</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>8.20704272197213</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>2.976208949950444</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>17.8811262361189</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>9.848850830204899</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>17.87849857620818</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>9.57749761810955</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.12175936395721</v>
+        <v>28.00866095366678</v>
       </c>
       <c r="C13">
-        <v>19.58833232813194</v>
+        <v>19.7200708913561</v>
       </c>
       <c r="D13">
-        <v>6.382703873315293</v>
+        <v>6.53820802602975</v>
       </c>
       <c r="E13">
-        <v>9.367727046454466</v>
+        <v>9.093306198516029</v>
       </c>
       <c r="F13">
-        <v>13.64744577363853</v>
+        <v>13.24806385891242</v>
       </c>
       <c r="G13">
-        <v>14.29837272122268</v>
+        <v>16.09919092811769</v>
       </c>
       <c r="H13">
-        <v>5.906110027638356</v>
+        <v>5.86623354925443</v>
       </c>
       <c r="J13">
-        <v>6.068190677068993</v>
+        <v>6.303313652709585</v>
       </c>
       <c r="K13">
-        <v>6.931388013800666</v>
+        <v>7.224845117578484</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>8.161170087810699</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>2.700615559451657</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>16.00501588067793</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>9.182805962183249</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>15.99077628723503</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>9.006974705376415</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.20388784752271</v>
+        <v>28.09728102365099</v>
       </c>
       <c r="C14">
-        <v>19.60964361222862</v>
+        <v>19.67750772451935</v>
       </c>
       <c r="D14">
-        <v>6.465386043555919</v>
+        <v>6.595171021548747</v>
       </c>
       <c r="E14">
-        <v>9.910415816365745</v>
+        <v>9.667955524429383</v>
       </c>
       <c r="F14">
-        <v>12.98029101801994</v>
+        <v>12.70210150901099</v>
       </c>
       <c r="G14">
-        <v>13.1299494119765</v>
+        <v>14.67018942722673</v>
       </c>
       <c r="H14">
-        <v>6.782467880305763</v>
+        <v>6.749803626114198</v>
       </c>
       <c r="J14">
-        <v>5.909169610087524</v>
+        <v>6.309384385865563</v>
       </c>
       <c r="K14">
-        <v>6.880173742264738</v>
+        <v>7.216546446318326</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>8.164852870243642</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>2.596355855702536</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>14.5805938338986</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>8.721662437953242</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>14.55952594110185</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>8.64899113813062</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.13664212183956</v>
+        <v>28.03268306405248</v>
       </c>
       <c r="C15">
-        <v>19.5574108102554</v>
+        <v>19.61137751942454</v>
       </c>
       <c r="D15">
-        <v>6.467730800260778</v>
+        <v>6.586209099178995</v>
       </c>
       <c r="E15">
-        <v>10.16874577955514</v>
+        <v>9.938235356372251</v>
       </c>
       <c r="F15">
-        <v>12.79474420821737</v>
+        <v>12.56783687866973</v>
       </c>
       <c r="G15">
-        <v>12.81450930982051</v>
+        <v>14.17531559981096</v>
       </c>
       <c r="H15">
-        <v>6.983283587476392</v>
+        <v>6.952504322146242</v>
       </c>
       <c r="J15">
-        <v>5.877977381549759</v>
+        <v>6.344670166147623</v>
       </c>
       <c r="K15">
-        <v>6.901971028030164</v>
+        <v>7.243865783626126</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>8.176402068191866</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>2.601639818076524</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>14.18930072131581</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>8.613987354211902</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>14.1671787277992</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>8.581119508694258</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.26932358145344</v>
+        <v>27.17567087077488</v>
       </c>
       <c r="C16">
-        <v>18.98875607931515</v>
+        <v>19.0557212886291</v>
       </c>
       <c r="D16">
-        <v>6.286549641206868</v>
+        <v>6.363488080545969</v>
       </c>
       <c r="E16">
-        <v>10.0306877815515</v>
+        <v>9.82298676607537</v>
       </c>
       <c r="F16">
-        <v>12.62169213131563</v>
+        <v>12.57336476620756</v>
       </c>
       <c r="G16">
-        <v>12.61079631747252</v>
+        <v>13.00727881824042</v>
       </c>
       <c r="H16">
-        <v>6.712370555533309</v>
+        <v>6.685137277970729</v>
       </c>
       <c r="J16">
-        <v>5.953719755595205</v>
+        <v>6.670257124611151</v>
       </c>
       <c r="K16">
-        <v>7.177901497677841</v>
+        <v>7.496387810605073</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>8.277029971626455</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>2.829181819167998</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>13.85464220314778</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>8.678846643184263</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>13.83808630184794</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>8.76620244591634</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.54171204252633</v>
+        <v>26.45241702226437</v>
       </c>
       <c r="C17">
-        <v>18.53081817557359</v>
+        <v>18.63629479315268</v>
       </c>
       <c r="D17">
-        <v>6.098492565899416</v>
+        <v>6.162657546544305</v>
       </c>
       <c r="E17">
-        <v>9.463134338474772</v>
+        <v>9.254250150740678</v>
       </c>
       <c r="F17">
-        <v>12.86090544616585</v>
+        <v>12.86208741926577</v>
       </c>
       <c r="G17">
-        <v>13.11413185507871</v>
+        <v>13.04472713958783</v>
       </c>
       <c r="H17">
-        <v>5.98972668864738</v>
+        <v>5.961896675393725</v>
       </c>
       <c r="J17">
-        <v>6.095738530643366</v>
+        <v>6.909415495465204</v>
       </c>
       <c r="K17">
-        <v>7.410286425992682</v>
+        <v>7.701613503103724</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>8.373058546467979</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>3.032355938728317</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>14.39092199075754</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>8.976647513160733</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>14.3817254167545</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>9.088501970356438</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.86530413393053</v>
+        <v>25.77555193973558</v>
       </c>
       <c r="C18">
-        <v>18.12563656947589</v>
+        <v>18.3053888516636</v>
       </c>
       <c r="D18">
-        <v>5.886128452398228</v>
+        <v>5.954261858012042</v>
       </c>
       <c r="E18">
-        <v>9.431128766582447</v>
+        <v>9.214694216910893</v>
       </c>
       <c r="F18">
-        <v>13.47215793140374</v>
+        <v>13.44838933959641</v>
       </c>
       <c r="G18">
-        <v>14.26595424831535</v>
+        <v>13.93192829378359</v>
       </c>
       <c r="H18">
-        <v>4.857713397806165</v>
+        <v>4.824339647468268</v>
       </c>
       <c r="J18">
-        <v>6.31026754267271</v>
+        <v>7.139474897128556</v>
       </c>
       <c r="K18">
-        <v>7.664475940101154</v>
+        <v>7.917304518344488</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>8.491377781010295</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>3.260386006932575</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>15.74482220834191</v>
+        <v>0</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>9.503236119834595</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>15.74674222062593</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>9.584889454154535</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.29353325646913</v>
+        <v>25.1991913866795</v>
       </c>
       <c r="C19">
-        <v>17.8018560347559</v>
+        <v>18.08168196236108</v>
       </c>
       <c r="D19">
-        <v>5.674017291916199</v>
+        <v>5.755984580046491</v>
       </c>
       <c r="E19">
-        <v>11.17797405346825</v>
+        <v>10.96843226530976</v>
       </c>
       <c r="F19">
-        <v>14.3235962034674</v>
+        <v>14.23072994955558</v>
       </c>
       <c r="G19">
-        <v>15.82742954642291</v>
+        <v>15.33185954665784</v>
       </c>
       <c r="H19">
-        <v>3.689033896600372</v>
+        <v>3.643178544500316</v>
       </c>
       <c r="J19">
-        <v>6.569934420069896</v>
+        <v>7.367545978588377</v>
       </c>
       <c r="K19">
-        <v>7.963667043553096</v>
+        <v>8.159521813226652</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>8.63477083000549</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>3.536569409109204</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>17.63510031059252</v>
+        <v>0</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>10.17549462364489</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>17.65062848418914</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>10.1939263825513</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.06388919700296</v>
+        <v>24.9537691939721</v>
       </c>
       <c r="C20">
-        <v>17.73144675958844</v>
+        <v>18.1778996657329</v>
       </c>
       <c r="D20">
-        <v>5.478974364622783</v>
+        <v>5.599020061527542</v>
       </c>
       <c r="E20">
-        <v>16.04888096550259</v>
+        <v>15.84203316839699</v>
       </c>
       <c r="F20">
-        <v>15.78757881989971</v>
+        <v>15.51345703177283</v>
       </c>
       <c r="G20">
-        <v>18.4106141573024</v>
+        <v>17.99823028039792</v>
       </c>
       <c r="H20">
-        <v>3.086886069687571</v>
+        <v>3.018928467245653</v>
       </c>
       <c r="J20">
-        <v>6.948008815203282</v>
+        <v>7.564108782992272</v>
       </c>
       <c r="K20">
-        <v>8.364065156162907</v>
+        <v>8.439033549742476</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>8.788419341742152</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>3.972830255785703</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>20.85051933260368</v>
+        <v>0</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>11.22565322417715</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>20.88520843214696</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>11.09072590333198</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.44904663557913</v>
+        <v>26.31690977580731</v>
       </c>
       <c r="C21">
-        <v>18.65521678533053</v>
+        <v>19.11340507078326</v>
       </c>
       <c r="D21">
-        <v>5.723291414047531</v>
+        <v>5.930077778952772</v>
       </c>
       <c r="E21">
-        <v>17.13913545589367</v>
+        <v>16.90357077938826</v>
       </c>
       <c r="F21">
-        <v>16.50754937802784</v>
+        <v>15.83641650560917</v>
       </c>
       <c r="G21">
-        <v>19.46313269959042</v>
+        <v>20.90994015378926</v>
       </c>
       <c r="H21">
-        <v>3.363973113968729</v>
+        <v>3.279103011267703</v>
       </c>
       <c r="J21">
-        <v>6.971968996059354</v>
+        <v>6.810702499497098</v>
       </c>
       <c r="K21">
-        <v>8.068584334472668</v>
+        <v>8.02394784484374</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>8.507004251668803</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>3.886450709627796</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>22.25418638796205</v>
+        <v>0</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>11.49440361998309</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>22.28073826506137</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>11.04645595471964</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.34610782452276</v>
+        <v>27.20064707708069</v>
       </c>
       <c r="C22">
-        <v>19.25108338709187</v>
+        <v>19.70402296714686</v>
       </c>
       <c r="D22">
-        <v>5.889446138237293</v>
+        <v>6.153846028100907</v>
       </c>
       <c r="E22">
-        <v>17.58217013377769</v>
+        <v>17.32969496795995</v>
       </c>
       <c r="F22">
-        <v>16.92283340680915</v>
+        <v>15.98403762952374</v>
       </c>
       <c r="G22">
-        <v>20.04958041497698</v>
+        <v>22.77683751654417</v>
       </c>
       <c r="H22">
-        <v>3.529432357924136</v>
+        <v>3.433892675524516</v>
       </c>
       <c r="J22">
-        <v>6.975496095086198</v>
+        <v>6.351002839430636</v>
       </c>
       <c r="K22">
-        <v>7.858797513383338</v>
+        <v>7.729860350418089</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>8.324879378461828</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>3.826640455206556</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>23.00470886438185</v>
+        <v>0</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>11.63503011138382</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>23.02409790243524</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>10.97032411836398</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.87096489896089</v>
+        <v>26.73275388576571</v>
       </c>
       <c r="C23">
-        <v>18.93533582278467</v>
+        <v>19.4020401634522</v>
       </c>
       <c r="D23">
-        <v>5.801373016112247</v>
+        <v>6.027653805270353</v>
       </c>
       <c r="E23">
-        <v>17.34695822833295</v>
+        <v>17.10331159178222</v>
       </c>
       <c r="F23">
-        <v>16.70069703396712</v>
+        <v>15.93946272208503</v>
       </c>
       <c r="G23">
-        <v>19.73580826016236</v>
+        <v>21.57340660400187</v>
       </c>
       <c r="H23">
-        <v>3.441405485447262</v>
+        <v>3.352113615201643</v>
       </c>
       <c r="J23">
-        <v>6.972983639261487</v>
+        <v>6.65545845975634</v>
       </c>
       <c r="K23">
-        <v>7.969682906810608</v>
+        <v>7.897587603609613</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>8.425479756020977</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>3.871013396281707</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>22.60704085021333</v>
+        <v>0</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>11.5587342481758</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>22.631923529382</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>11.03804177653053</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.99140818322002</v>
+        <v>24.88086362443693</v>
       </c>
       <c r="C24">
-        <v>17.68953798143684</v>
+        <v>18.14599086039501</v>
       </c>
       <c r="D24">
-        <v>5.454528795949084</v>
+        <v>5.575349125090335</v>
       </c>
       <c r="E24">
-        <v>16.42897557932694</v>
+        <v>16.22302029925255</v>
       </c>
       <c r="F24">
-        <v>15.87074891748424</v>
+        <v>15.59204911774842</v>
       </c>
       <c r="G24">
-        <v>18.56528766258661</v>
+        <v>18.12394407111791</v>
       </c>
       <c r="H24">
-        <v>3.101695136668705</v>
+        <v>3.033692972979784</v>
       </c>
       <c r="J24">
-        <v>6.976936017392825</v>
+        <v>7.594499747966708</v>
       </c>
       <c r="K24">
-        <v>8.412208137037094</v>
+        <v>8.478718459069135</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>8.812100542859268</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>4.013773492473811</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>21.03716628211314</v>
+        <v>0</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>11.29671890870727</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>21.07326256740695</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>11.15695940626587</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.79224489881081</v>
+        <v>22.71016106660584</v>
       </c>
       <c r="C25">
-        <v>16.23987390623659</v>
+        <v>16.55051846573954</v>
       </c>
       <c r="D25">
-        <v>5.052435997293114</v>
+        <v>5.139954986744086</v>
       </c>
       <c r="E25">
-        <v>15.38217679587046</v>
+        <v>15.21895693461877</v>
       </c>
       <c r="F25">
-        <v>15.00361812696759</v>
+        <v>14.85890029878093</v>
       </c>
       <c r="G25">
-        <v>17.34665371715845</v>
+        <v>16.75573890965308</v>
       </c>
       <c r="H25">
-        <v>2.720955035395092</v>
+        <v>2.669040162768962</v>
       </c>
       <c r="J25">
-        <v>7.007619601974359</v>
+        <v>7.704416625822399</v>
       </c>
       <c r="K25">
-        <v>8.931140877688529</v>
+        <v>9.007276549400604</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>9.207624079043846</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>4.168771087515877</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>19.20744895463622</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>11.06933776183409</v>
+        <v>19.23538851754207</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>11.02427927602134</v>
       </c>
     </row>
   </sheetData>
